--- a/Lorenzo/mapa.xlsx
+++ b/Lorenzo/mapa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martu\OneDrive\Escritorio\lorenzo\Analisis-review\Analisis-review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martu\OneDrive\Escritorio\Review_EDA_Emotion_Recognition\Lorenzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:E320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I310" sqref="I310"/>
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="E243">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
